--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value467.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value467.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.060188121347869</v>
+        <v>0.8251227736473083</v>
       </c>
       <c r="B1">
-        <v>1.453768587537458</v>
+        <v>1.246923804283142</v>
       </c>
       <c r="C1">
-        <v>2.481707851471817</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>4.779389310788926</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.130695451970195</v>
+        <v>1.47752833366394</v>
       </c>
     </row>
   </sheetData>
